--- a/GPrice.xlsx
+++ b/GPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Historical data\my 20 prosumer data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC0CB0-537E-4A5C-A60C-B92E5F7A1FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1587378-6F74-45F9-B2B0-C1D94D124E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CACB38A2-3B4C-4550-9711-E6D55324B989}"/>
   </bookViews>
@@ -40,6 +40,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,9 +73,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1043FF-880A-4DC1-A451-1F11F1619455}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -407,8 +413,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>42161.000694444447</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -418,8 +424,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>42161.001388888886</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -429,8 +435,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>42161.002083333333</v>
       </c>
       <c r="B4">
         <v>0.06</v>
@@ -440,8 +446,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="2">
+        <v>42161.00277777778</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -451,8 +457,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="2">
+        <v>42161.003472222219</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -462,8 +468,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="2">
+        <v>42161.004166666666</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -473,8 +479,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="2">
+        <v>42161.004861111112</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -484,8 +490,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="2">
+        <v>42161.005555555559</v>
       </c>
       <c r="B9">
         <v>0.05</v>
@@ -495,8 +501,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="2">
+        <v>42161.006249999999</v>
       </c>
       <c r="B10">
         <v>0.08</v>
@@ -506,8 +512,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="2">
+        <v>42161.006944444445</v>
       </c>
       <c r="B11">
         <v>0.08</v>
@@ -517,8 +523,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="2">
+        <v>42161.007638888892</v>
       </c>
       <c r="B12">
         <v>0.14000000000000001</v>
@@ -528,8 +534,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="2">
+        <v>42161.008333333331</v>
       </c>
       <c r="B13">
         <v>0.14000000000000001</v>
@@ -539,8 +545,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="2">
+        <v>42161.009027777778</v>
       </c>
       <c r="B14">
         <v>0.14000000000000001</v>
@@ -550,8 +556,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="2">
+        <v>42161.009722222225</v>
       </c>
       <c r="B15">
         <v>0.14000000000000001</v>
@@ -561,8 +567,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="2">
+        <v>42161.010416666664</v>
       </c>
       <c r="B16">
         <v>0.14000000000000001</v>
@@ -572,8 +578,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="2">
+        <v>42161.011111111111</v>
       </c>
       <c r="B17">
         <v>0.12</v>
@@ -583,8 +589,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="2">
+        <v>42161.011805555558</v>
       </c>
       <c r="B18">
         <v>0.12</v>
@@ -594,8 +600,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="2">
+        <v>42161.012499999997</v>
       </c>
       <c r="B19">
         <v>0.06</v>
@@ -605,8 +611,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="2">
+        <v>42161.013194444444</v>
       </c>
       <c r="B20">
         <v>0.06</v>
@@ -616,8 +622,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="2">
+        <v>42161.013888888891</v>
       </c>
       <c r="B21">
         <v>0.06</v>
@@ -627,8 +633,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="2">
+        <v>42161.01458333333</v>
       </c>
       <c r="B22">
         <v>0.14000000000000001</v>
@@ -638,8 +644,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="2">
+        <v>42161.015277777777</v>
       </c>
       <c r="B23">
         <v>0.14000000000000001</v>
@@ -649,8 +655,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="2">
+        <v>42161.015972222223</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -660,8 +666,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="2">
+        <v>42161.01666666667</v>
       </c>
       <c r="B25">
         <v>0.1</v>
@@ -669,6 +675,9 @@
       <c r="C25">
         <v>4.0599999999999997E-2</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
